--- a/code/notebooks/phase2results_new/phase2featuressorted.xlsx
+++ b/code/notebooks/phase2results_new/phase2featuressorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01652410245340057</v>
+        <v>0.01644842909775746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07688416500643178</v>
+        <v>0.07597950997903111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07474218758989627</v>
+        <v>0.07403811341929012</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02240222219087684</v>
+        <v>0.02225933717714216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02793152951965177</v>
+        <v>0.02868956566652451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05344657398672528</v>
+        <v>0.0532418866146034</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01960535757649898</v>
+        <v>0.01984800752185134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02123698350896518</v>
+        <v>0.02115987205162256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03478097047367237</v>
+        <v>0.03667360079520089</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01689767038841721</v>
+        <v>0.01700965461544108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02227259984597072</v>
+        <v>0.02231371869546689</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03355709689447</v>
+        <v>0.03424922876773161</v>
       </c>
     </row>
     <row r="6">
@@ -521,45 +521,45 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01626195582483329</v>
+        <v>0.01619835095160314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0252483583318641</v>
+        <v>0.02572447297600604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03140889849277597</v>
+        <v>0.03147771039380236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BACS_Dig_Seq_z_within_imputed</t>
+          <t>SSGoDiff_standwithin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01894377590991108</v>
+        <v>0.01802817285821593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01713568549740506</v>
+        <v>0.01704321587340032</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02799304422651359</v>
+        <v>0.02806936590390892</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SSGoDiff_standwithin</t>
+          <t>BACS_Dig_Seq_z_within_imputed</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01782098762822127</v>
+        <v>0.01906069902814845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01672963152481446</v>
+        <v>0.01676917334863685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02770490965369256</v>
+        <v>0.02801567311877766</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0165706577557377</v>
+        <v>0.01674801452480651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01949379761845233</v>
+        <v>0.01971925390215727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02550617447002692</v>
+        <v>0.02560027326832607</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01922647765527189</v>
+        <v>0.01960471037215577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0155886920121138</v>
+        <v>0.01551760459474196</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02099873627355774</v>
+        <v>0.02145113404228399</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01558279737692613</v>
+        <v>0.01588329664060728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01530597774256065</v>
+        <v>0.01561232567870363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02066786584262346</v>
+        <v>0.02104951837559189</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01329797479651655</v>
+        <v>0.01382218787759993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0206149972151978</v>
+        <v>0.0208624838253133</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01978134160396707</v>
+        <v>0.01988389137127542</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01530622009382196</v>
+        <v>0.01528922436127875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01540423818285059</v>
+        <v>0.01555059611094442</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01705469838492344</v>
+        <v>0.01662967335102796</v>
       </c>
     </row>
     <row r="14">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01561268165196689</v>
+        <v>0.01580177518978304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01388971186996323</v>
+        <v>0.01420678102533152</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01638268409741772</v>
+        <v>0.01641374288213207</v>
       </c>
     </row>
     <row r="15">
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01554957698991354</v>
+        <v>0.01614417662891579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01221157323166895</v>
+        <v>0.01213460260231881</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01362149880712035</v>
+        <v>0.01383059864325436</v>
       </c>
     </row>
     <row r="16">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01329681755698462</v>
+        <v>0.01358854941068376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01284253851563547</v>
+        <v>0.01302529278377501</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01305818147838173</v>
+        <v>0.01325006242881692</v>
       </c>
     </row>
     <row r="17">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01753198794501295</v>
+        <v>0.01773390236865567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0118726773343475</v>
+        <v>0.01196600341066256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01249747564067392</v>
+        <v>0.01254032922273228</v>
       </c>
     </row>
     <row r="18">
@@ -713,45 +713,45 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01188975010699654</v>
+        <v>0.01230768111352318</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01482886130530045</v>
+        <v>0.01475144022281516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01205667652104068</v>
+        <v>0.01223263369809105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>panss_g9</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0120157440098187</v>
+        <v>0.01407411759917008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01337282719057179</v>
+        <v>0.01501779130260986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01161398794353634</v>
+        <v>0.01213009826458573</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>panss_g9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01403205576509138</v>
+        <v>0.01211160983701468</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01481084785409981</v>
+        <v>0.01333416321475078</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01154829469434243</v>
+        <v>0.01169504987821735</v>
       </c>
     </row>
     <row r="21">
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01266633191678762</v>
+        <v>0.01282020237595078</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01255662790460369</v>
+        <v>0.01278026860047386</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01149479632305606</v>
+        <v>0.0116626260194107</v>
       </c>
     </row>
     <row r="22">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01298495610279337</v>
+        <v>0.01316508393320301</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01219666443025533</v>
+        <v>0.01259010911766135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01122216350917953</v>
+        <v>0.01141643713924951</v>
       </c>
     </row>
     <row r="23">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01177575507797399</v>
+        <v>0.01175657112255589</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0116123386060247</v>
+        <v>0.0114321694249189</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0106464758924558</v>
+        <v>0.01088744980885567</v>
       </c>
     </row>
     <row r="24">
@@ -809,61 +809,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01314216436987042</v>
+        <v>0.01346730838516647</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01108430788273597</v>
+        <v>0.01135489584105445</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01057645931581131</v>
+        <v>0.01080191248894658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>panss_n6</t>
+          <t>sfs_ipcctotal</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01125993155367403</v>
+        <v>0.01289931192082613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01158466689841159</v>
+        <v>0.01294049452816454</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01051737045933919</v>
+        <v>0.01072700887316634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sfs_ipcctotal</t>
+          <t>sfs_ictotal</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01279971186309377</v>
+        <v>0.01373539487436162</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01272866305694833</v>
+        <v>0.01162405619214981</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01050626217797556</v>
+        <v>0.01066095741956615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>sfs_ictotal</t>
+          <t>panss_n6</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01356499200010212</v>
+        <v>0.01157859239303369</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01142017893665873</v>
+        <v>0.01207969812210713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01038758518641593</v>
+        <v>0.01064336174251782</v>
       </c>
     </row>
     <row r="28">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01335047841384572</v>
+        <v>0.01374553876248362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0113049524557759</v>
+        <v>0.01142539040849668</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01035177334855997</v>
+        <v>0.01050867095131278</v>
       </c>
     </row>
     <row r="29">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01260959447011865</v>
+        <v>0.01271225478137968</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01113735565183518</v>
+        <v>0.01135110194191698</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01030380451826762</v>
+        <v>0.01043739544836691</v>
       </c>
     </row>
     <row r="30">
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01327229360172536</v>
+        <v>0.0136480608710661</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01208403248284384</v>
+        <v>0.01194674077105356</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0102087468771697</v>
+        <v>0.01035965633685648</v>
       </c>
     </row>
     <row r="31">
@@ -921,109 +921,109 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01317423718516944</v>
+        <v>0.01342183289695845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01116922356490588</v>
+        <v>0.01122910947072856</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01013552386333113</v>
+        <v>0.01013622753236595</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>panss_p1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0135208929027743</v>
+        <v>0.0123427840294016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01075515484582268</v>
+        <v>0.0117642992181168</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01007963372798652</v>
+        <v>0.01009097741047778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>madrs_2</t>
+          <t>sfs_setotal</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01219981339877909</v>
+        <v>0.01315578817468515</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01131592131463028</v>
+        <v>0.01114031517704985</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009870791280707671</v>
+        <v>0.009875106587855122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>panss_g12</t>
+          <t>madrs_2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0130564274868565</v>
+        <v>0.01248557040192088</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01083471531187573</v>
+        <v>0.01145563527932075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.009846836332481877</v>
+        <v>0.009814989885885981</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>panss_p1</t>
+          <t>panss_g12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01192559644755405</v>
+        <v>0.01339106964530169</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01144740678365708</v>
+        <v>0.01110609665768467</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00978262006174856</v>
+        <v>0.009788533383239826</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sfs_setotal</t>
+          <t>panss_g3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01303846636977387</v>
+        <v>0.01321093534684162</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01107057024710686</v>
+        <v>0.009900764620837764</v>
       </c>
       <c r="D36" t="n">
-        <v>0.009724914015163847</v>
+        <v>0.0096558306521119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>panss_g3</t>
+          <t>panss_g7</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01258814316627373</v>
+        <v>0.01138923098404271</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009827432122143277</v>
+        <v>0.009053949037584899</v>
       </c>
       <c r="D37" t="n">
-        <v>0.009679752981668299</v>
+        <v>0.00956755365509933</v>
       </c>
     </row>
     <row r="38">
@@ -1033,61 +1033,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01225457656581728</v>
+        <v>0.01263362553717839</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01127154600170738</v>
+        <v>0.01145647116673163</v>
       </c>
       <c r="D38" t="n">
-        <v>0.009540748590536201</v>
+        <v>0.009488226522935773</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>panss_g7</t>
+          <t>panss_n4</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01140337857222179</v>
+        <v>0.01235983947367601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.008838077393338879</v>
+        <v>0.01037819005325293</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00931586415777317</v>
+        <v>0.009331443075993016</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>panss_g16</t>
+          <t>panss_g6</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01174100931640705</v>
+        <v>0.01294745645306029</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01126574697202919</v>
+        <v>0.01154178394917301</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009254910198609575</v>
+        <v>0.009279835128170051</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>panss_n4</t>
+          <t>panss_g1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01231765719407336</v>
+        <v>0.01196277668216189</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01021755640103164</v>
+        <v>0.01048116913617536</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00916331284886983</v>
+        <v>0.009275252374835759</v>
       </c>
     </row>
     <row r="42">
@@ -1097,61 +1097,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01064890489221242</v>
+        <v>0.01079945190248575</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01406160381254101</v>
+        <v>0.01441510425146039</v>
       </c>
       <c r="D42" t="n">
-        <v>0.009159399460260795</v>
+        <v>0.009263456777624848</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>panss_g6</t>
+          <t>panss_g16</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01253580093369639</v>
+        <v>0.01176194377310564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01104872009368796</v>
+        <v>0.01147610404728983</v>
       </c>
       <c r="D43" t="n">
-        <v>0.009152618943037731</v>
+        <v>0.009248112364058245</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>madrs_1</t>
+          <t>panss_g10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01195031334664428</v>
+        <v>0.01310350210791748</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009693374611650492</v>
+        <v>0.01081531757398213</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00907854018553254</v>
+        <v>0.009241540673467963</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>panss_g1</t>
+          <t>madrs_1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01183332875891538</v>
+        <v>0.0121860948754826</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0101037582315851</v>
+        <v>0.009913926281274384</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009038223671748771</v>
+        <v>0.009225831331146605</v>
       </c>
     </row>
     <row r="46">
@@ -1161,61 +1161,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01154390306071143</v>
+        <v>0.01187303499798779</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01025515175568857</v>
+        <v>0.01032820940612596</v>
       </c>
       <c r="D46" t="n">
-        <v>0.009033333676752374</v>
+        <v>0.009182678658613339</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>panss_g2</t>
+          <t>young_7</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01223991826254417</v>
+        <v>0.01081699732502819</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01165294719583186</v>
+        <v>0.009671330911046164</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009033259939900158</v>
+        <v>0.009175723299966755</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>young_7</t>
+          <t>panss_g2</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01062747951707738</v>
+        <v>0.01216184313587227</v>
       </c>
       <c r="C48" t="n">
-        <v>0.009296848106251665</v>
+        <v>0.01174462294397772</v>
       </c>
       <c r="D48" t="n">
-        <v>0.009024465196028723</v>
+        <v>0.009073756497198653</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>panss_g10</t>
+          <t>panss_p5</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01296141781562249</v>
+        <v>0.01244984497777697</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01062843497698306</v>
+        <v>0.01073325394042426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.008928426839017872</v>
+        <v>0.00898272967992487</v>
       </c>
     </row>
     <row r="50">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0121783099891881</v>
+        <v>0.01240194022995959</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01036300624912966</v>
+        <v>0.01037150222639473</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008896954658319601</v>
+        <v>0.008971416292414653</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>panss_p5</t>
+          <t>madrs_7</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01228736150420015</v>
+        <v>0.01185848227704444</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0106318462619775</v>
+        <v>0.010175506740956</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008857795278120232</v>
+        <v>0.008826796512271581</v>
       </c>
     </row>
     <row r="52">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01167750771251421</v>
+        <v>0.01182876545073582</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01006897893758128</v>
+        <v>0.01043656759694583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00880757708355592</v>
+        <v>0.008788312634979095</v>
       </c>
     </row>
     <row r="53">
@@ -1273,61 +1273,61 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01132427881488611</v>
+        <v>0.01144391311367996</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009692571448591382</v>
+        <v>0.009973165874715634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.008802923819484536</v>
+        <v>0.008743282480744232</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>madrs_4</t>
+          <t>madrs_6</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01150950137124131</v>
+        <v>0.01222972139020928</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009775156148352625</v>
+        <v>0.01015332490620096</v>
       </c>
       <c r="D54" t="n">
-        <v>0.008788192393555399</v>
+        <v>0.008722159379177761</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>madrs_6</t>
+          <t>panss_g11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0120399971944888</v>
+        <v>0.01148924383733409</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01009249403261948</v>
+        <v>0.01151602295891728</v>
       </c>
       <c r="D55" t="n">
-        <v>0.008746394753990536</v>
+        <v>0.008705070342900073</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>madrs_7</t>
+          <t>madrs_4</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01150398809718959</v>
+        <v>0.01168781347818252</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0101905907317229</v>
+        <v>0.009923251294877516</v>
       </c>
       <c r="D56" t="n">
-        <v>0.008601674739818406</v>
+        <v>0.008701152923709897</v>
       </c>
     </row>
     <row r="57">
@@ -1337,253 +1337,253 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01130927847901272</v>
+        <v>0.01142656443117226</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009955370408546028</v>
+        <v>0.01025701023510915</v>
       </c>
       <c r="D57" t="n">
-        <v>0.008561996915379908</v>
+        <v>0.008608517818811331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>panss_n3</t>
+          <t>young_11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01132261279917691</v>
+        <v>0.01090535707095978</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01032335197201368</v>
+        <v>0.009318792351211153</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008534249713807455</v>
+        <v>0.008515400730669561</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>panss_g11</t>
+          <t>panss_n3</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0114469081392638</v>
+        <v>0.01120898776906486</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0115137125209682</v>
+        <v>0.01044137539094312</v>
       </c>
       <c r="D59" t="n">
-        <v>0.008529907309356741</v>
+        <v>0.008498243602768563</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>young_11</t>
+          <t>panss_g4</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01086905465798691</v>
+        <v>0.01285938236606404</v>
       </c>
       <c r="C60" t="n">
-        <v>0.00921679771474908</v>
+        <v>0.01121399592454976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008456387153583808</v>
+        <v>0.008487943359838898</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>panss_p4</t>
+          <t>young_10</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01313651525418268</v>
+        <v>0.01009605558220126</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01045834870575425</v>
+        <v>0.009330868275015234</v>
       </c>
       <c r="D61" t="n">
-        <v>0.008447925215585354</v>
+        <v>0.00835825079499844</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>panss_g4</t>
+          <t>panss_p4</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01275970722924274</v>
+        <v>0.01279586141322243</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0110091075991971</v>
+        <v>0.01053277844837562</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008262332267579661</v>
+        <v>0.008349110951076089</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>young_10</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.009943736742712563</v>
+        <v>0.01593864757641587</v>
       </c>
       <c r="C63" t="n">
-        <v>0.009327343564674415</v>
+        <v>0.01347871742347855</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00812841577652614</v>
+        <v>0.008278621829403296</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>panss_g15</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01590280865559503</v>
+        <v>0.01050174334242759</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01285595796431225</v>
+        <v>0.00996488625712014</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00811035357086348</v>
+        <v>0.008154891742853731</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>panss_g15</t>
+          <t>panss_g14</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01052709317129607</v>
+        <v>0.01099706140844536</v>
       </c>
       <c r="C65" t="n">
-        <v>0.009819429258474306</v>
+        <v>0.009691262834322565</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00811030738647696</v>
+        <v>0.008077033486563835</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>madrs_8</t>
+          <t>panss_g13</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01252836216983391</v>
+        <v>0.01096695216989281</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01060484037795563</v>
+        <v>0.010499685742549</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00801768027962003</v>
+        <v>0.007984918867795354</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>panss_g14</t>
+          <t>young_6</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01080309159509729</v>
+        <v>0.01097327381115707</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009746199003409246</v>
+        <v>0.008347050565576768</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008009993596956087</v>
+        <v>0.00786579898582593</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>panss_p7</t>
+          <t>madrs_8</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01126581171603153</v>
+        <v>0.01282703415224601</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01010263007681964</v>
+        <v>0.01074744717966099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.007921139726327464</v>
+        <v>0.007860904683827065</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>panss_g13</t>
+          <t>panss_p7</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0107346813421194</v>
+        <v>0.01166858426846033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01041746904288215</v>
+        <v>0.01011929203075683</v>
       </c>
       <c r="D69" t="n">
-        <v>0.007806783489290036</v>
+        <v>0.007810891696078052</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>young_6</t>
+          <t>young_4</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01087578895939236</v>
+        <v>0.009911944765589114</v>
       </c>
       <c r="C70" t="n">
-        <v>0.008284941642352325</v>
+        <v>0.008835521411371058</v>
       </c>
       <c r="D70" t="n">
-        <v>0.007673427138449909</v>
+        <v>0.007429606909251284</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>young_4</t>
+          <t>young_9</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.009819888913507099</v>
+        <v>0.0104523100887728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.008760702863570145</v>
+        <v>0.008398066830669113</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007280952112367383</v>
+        <v>0.007379776883742814</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>young_9</t>
+          <t>young_2</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01025575530120851</v>
+        <v>0.0118151050815078</v>
       </c>
       <c r="C72" t="n">
-        <v>0.008082299393923712</v>
+        <v>0.009445120578452728</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00721759464833868</v>
+        <v>0.007301634633880901</v>
       </c>
     </row>
     <row r="73">
@@ -1593,29 +1593,29 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.009490332605536738</v>
+        <v>0.009744518044865712</v>
       </c>
       <c r="C73" t="n">
-        <v>0.008350524837760687</v>
+        <v>0.008548198037349738</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00708421752226169</v>
+        <v>0.007245488510689717</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>young_2</t>
+          <t>madrs_10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01201281248911766</v>
+        <v>0.00952300885680115</v>
       </c>
       <c r="C74" t="n">
-        <v>0.009603284016133291</v>
+        <v>0.008501509779019449</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007057181832335705</v>
+        <v>0.007172174397519334</v>
       </c>
     </row>
     <row r="75">
@@ -1625,92 +1625,76 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.008511101221693622</v>
+        <v>0.008527882078198523</v>
       </c>
       <c r="C75" t="n">
-        <v>0.008440636384131315</v>
+        <v>0.008350030535167403</v>
       </c>
       <c r="D75" t="n">
-        <v>0.007030003772586811</v>
+        <v>0.007145942354040601</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>madrs_10</t>
+          <t>panss_g5</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.009264546461509086</v>
+        <v>0.01043027274526368</v>
       </c>
       <c r="C76" t="n">
-        <v>0.008335830667866832</v>
+        <v>0.01003974039929445</v>
       </c>
       <c r="D76" t="n">
-        <v>0.007027259548100642</v>
+        <v>0.006361418149664622</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>panss_g5</t>
+          <t>young_3</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01012957668020694</v>
+        <v>0.008014915789132708</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01015690531424084</v>
+        <v>0.006237843883352334</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006331268470827617</v>
+        <v>0.005921970040106783</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>young_3</t>
+          <t>panss_g8</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.007867983024062769</v>
+        <v>0.009530818095726852</v>
       </c>
       <c r="C78" t="n">
-        <v>0.006122505006174932</v>
+        <v>0.007643018952599986</v>
       </c>
       <c r="D78" t="n">
-        <v>0.005882106172701265</v>
+        <v>0.005457402845525745</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>panss_g8</t>
+          <t>Psychosis</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.009345319469177835</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00755749649768783</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005537092999088424</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Psychosis</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
